--- a/3_Component_Results/IMPORT/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,19 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.339398838185446</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-2.325962872140053</v>
       </c>
       <c r="D2">
-        <v>0.3624027154503016</v>
+        <v>2.717184218186617</v>
       </c>
       <c r="E2">
-        <v>1.587544886956337</v>
+        <v>-2.490917476823483</v>
       </c>
       <c r="F2">
-        <v>4.043274384375877</v>
+        <v>5.433053069595729</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,25 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.354781502736316</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-4.078462363779821</v>
       </c>
       <c r="D3">
-        <v>3.271372586656682</v>
+        <v>4.661151271876534</v>
       </c>
       <c r="E3">
-        <v>2.097110774025353</v>
+        <v>6.651705714458217</v>
       </c>
       <c r="F3">
-        <v>3.839350840287807</v>
+        <v>6.709178096077707</v>
       </c>
       <c r="G3">
-        <v>0.605941975855274</v>
+        <v>-3.888207370780819</v>
       </c>
       <c r="H3">
-        <v>-1.903246041379176</v>
+        <v>2.709991627146224</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,19 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.389778685219852</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4.554594940432864</v>
       </c>
       <c r="D4">
-        <v>2.32200742097163</v>
+        <v>5.19183467676153</v>
       </c>
       <c r="E4">
-        <v>-0.3359446868568341</v>
+        <v>-4.830094033492927</v>
       </c>
       <c r="F4">
-        <v>-2.671412671986786</v>
+        <v>1.941824996538614</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,25 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.8698272557899</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-4.494149346636093</v>
       </c>
       <c r="D5">
-        <v>-2.456387264633463</v>
+        <v>2.156850403891937</v>
       </c>
       <c r="E5">
-        <v>-0.9199095005044458</v>
+        <v>-5.242968891207937</v>
       </c>
       <c r="F5">
-        <v>-0.9368334041950135</v>
+        <v>-6.916046429188043</v>
       </c>
       <c r="G5">
-        <v>-0.7250273291338372</v>
+        <v>-1.058669429628892</v>
       </c>
       <c r="H5">
-        <v>-1.105371144795726</v>
+        <v>0.08183550252746841</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,19 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4.6132376685254</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-4.323059390703492</v>
       </c>
       <c r="D6">
-        <v>-0.4927073321923101</v>
+        <v>-6.47192035718534</v>
       </c>
       <c r="E6">
-        <v>-0.7999999999999685</v>
+        <v>-1.133642100495023</v>
       </c>
       <c r="F6">
-        <v>-1.383944815439094</v>
+        <v>-0.1967381681158997</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,25 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-5.97921302499303</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-0.3336421004950549</v>
       </c>
       <c r="D7">
-        <v>-0.683944815439105</v>
+        <v>0.5032618318840889</v>
       </c>
       <c r="E7">
-        <v>0.27279471775006</v>
+        <v>-0.1632848153601001</v>
       </c>
       <c r="F7">
-        <v>-0.2924173168696029</v>
+        <v>-1.291754278273445</v>
       </c>
       <c r="G7">
-        <v>0.07291143403500588</v>
+        <v>-0.8433771880326331</v>
       </c>
       <c r="H7">
-        <v>1.40000000000002</v>
+        <v>2.58809437072307</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,19 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.187206647323194</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-0.4360795331101601</v>
       </c>
       <c r="D8">
-        <v>-0.692417316869594</v>
+        <v>-1.691754278273436</v>
       </c>
       <c r="E8">
-        <v>-0.227088565965005</v>
+        <v>-1.143377188032644</v>
       </c>
       <c r="F8">
-        <v>1.199999999999988</v>
+        <v>2.388094370723039</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,25 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-0.9993369614038421</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-0.9162886220676389</v>
       </c>
       <c r="D9">
-        <v>1.190915375251322</v>
+        <v>2.379009745974372</v>
       </c>
       <c r="E9">
-        <v>1.103562173521397</v>
+        <v>1.681290410009282</v>
       </c>
       <c r="F9">
-        <v>0.5830097839443908</v>
+        <v>-0.3607148982294461</v>
       </c>
       <c r="G9">
-        <v>1.466036868385175</v>
+        <v>0.922161731270734</v>
       </c>
       <c r="H9">
-        <v>2.106790312651867</v>
+        <v>3.318707023947993</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,19 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.18809437072305</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.5777282364878857</v>
       </c>
       <c r="D10">
-        <v>-0.09524468317573498</v>
+        <v>-1.038969365349572</v>
       </c>
       <c r="E10">
-        <v>0.9999999999999718</v>
+        <v>0.456124862885531</v>
       </c>
       <c r="F10">
-        <v>1.600744401240988</v>
+        <v>2.812661112537114</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,25 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-0.943724682173837</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-0.5438751371144408</v>
       </c>
       <c r="D11">
-        <v>1.100744401241002</v>
+        <v>2.312661112537128</v>
       </c>
       <c r="E11">
-        <v>1.200029811335511</v>
+        <v>3.700005087957896</v>
       </c>
       <c r="F11">
-        <v>-0.400000457745421</v>
+        <v>-0.3330793704473369</v>
       </c>
       <c r="G11">
-        <v>0.1999979562835048</v>
+        <v>0.4882750851338071</v>
       </c>
       <c r="H11">
-        <v>0.007363756084629136</v>
+        <v>0.01467091632704909</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.211916711296126</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.499975276622385</v>
       </c>
       <c r="D12">
-        <v>-0.899997375642499</v>
+        <v>-0.8330762883444149</v>
       </c>
       <c r="E12">
-        <v>0.4000153023674589</v>
+        <v>0.6882924312177612</v>
       </c>
       <c r="F12">
-        <v>0.3073678864840441</v>
+        <v>0.3146750467264641</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,25 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.0669210872980841</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.2882771288503023</v>
       </c>
       <c r="D13">
-        <v>0.1073648180772659</v>
+        <v>0.1146719783196859</v>
       </c>
       <c r="E13">
-        <v>-0.1820202434405049</v>
+        <v>-0.7085072997627999</v>
       </c>
       <c r="F13">
-        <v>0.5875020204596442</v>
+        <v>0.4807953866492261</v>
       </c>
       <c r="G13">
-        <v>0.06544288165092094</v>
+        <v>0.02220952249070907</v>
       </c>
       <c r="H13">
-        <v>0.9028451158971962</v>
+        <v>-0.05749613082447191</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,19 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.007307160242419952</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-0.526487056322295</v>
       </c>
       <c r="D14">
-        <v>0.772902997639719</v>
+        <v>0.6661963638293009</v>
       </c>
       <c r="E14">
-        <v>0.230963072348729</v>
+        <v>0.1877297131885172</v>
       </c>
       <c r="F14">
-        <v>1.057134499640597</v>
+        <v>0.09679325291892904</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,25 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.1067066338104181</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.04323335916021187</v>
       </c>
       <c r="D15">
-        <v>0.7937358181440861</v>
+        <v>-0.166605428577582</v>
       </c>
       <c r="E15">
-        <v>0.6054100283176489</v>
+        <v>0.2438558147322278</v>
       </c>
       <c r="F15">
-        <v>0.7021279946453518</v>
+        <v>1.21360082768301</v>
       </c>
       <c r="G15">
-        <v>0.2634212376963632</v>
+        <v>0.6139174841733281</v>
       </c>
       <c r="H15">
-        <v>0.41576245621242</v>
+        <v>1.240880967708379</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -922,19 +922,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-0.9603412467216681</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-0.3615542135854211</v>
       </c>
       <c r="D16">
-        <v>0.4515463402338749</v>
+        <v>0.9630191732715327</v>
       </c>
       <c r="E16">
-        <v>0.1547839077139481</v>
+        <v>0.5052801541909131</v>
       </c>
       <c r="F16">
-        <v>0.4046972726881961</v>
+        <v>1.229815784184155</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -942,25 +942,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.5114728330376579</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.350496246476965</v>
       </c>
       <c r="D17">
-        <v>0.180176680360858</v>
+        <v>1.005295191856816</v>
       </c>
       <c r="E17">
-        <v>0.005567908745661043</v>
+        <v>0.03764606290536698</v>
       </c>
       <c r="F17">
-        <v>0.6553916785861273</v>
+        <v>1.298055291346585</v>
       </c>
       <c r="G17">
-        <v>-0.002016901705885976</v>
+        <v>1.13685241246894</v>
       </c>
       <c r="H17">
-        <v>0.06468497110069005</v>
+        <v>-1.191311050950602</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -968,31 +968,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.8251185114959585</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.03207815415970594</v>
       </c>
       <c r="D18">
-        <v>0.6495210104212814</v>
+        <v>1.29218462318174</v>
       </c>
       <c r="E18">
-        <v>0.02337690648794011</v>
+        <v>1.162246220662766</v>
       </c>
       <c r="F18">
-        <v>0.03998377730710012</v>
+        <v>-1.216012244744192</v>
       </c>
       <c r="G18">
-        <v>-0.05367839451039891</v>
+        <v>0.8458859275583706</v>
       </c>
       <c r="H18">
-        <v>-0.423994900190436</v>
+        <v>-1.183478699330493</v>
       </c>
       <c r="I18">
-        <v>-0.1575864900651289</v>
+        <v>0.2823547203913674</v>
       </c>
       <c r="J18">
-        <v>-0.6759215982700941</v>
+        <v>-0.8692897857011141</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1000,25 +1000,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.6426636127604581</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.138869314174826</v>
       </c>
       <c r="D19">
-        <v>0.06660534276674901</v>
+        <v>-1.189390679284543</v>
       </c>
       <c r="E19">
-        <v>-0.09744616862174382</v>
+        <v>0.8021181534470256</v>
       </c>
       <c r="F19">
-        <v>-0.4372645034973739</v>
+        <v>-1.196748302637431</v>
       </c>
       <c r="G19">
-        <v>-0.1319791156233809</v>
+        <v>0.3079620948331154</v>
       </c>
       <c r="H19">
-        <v>-0.59592159827011</v>
+        <v>-0.7892897857011301</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1026,31 +1026,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>-1.255996022051292</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.8995643220687695</v>
       </c>
       <c r="D20">
-        <v>-0.448868334903523</v>
+        <v>-1.20835213404358</v>
       </c>
       <c r="E20">
-        <v>-0.131979115623438</v>
+        <v>0.3079620948330584</v>
       </c>
       <c r="F20">
-        <v>-0.595921598270067</v>
+        <v>-0.789289785701087</v>
       </c>
       <c r="G20">
-        <v>-0.1271197230843339</v>
+        <v>2.295090611800802</v>
       </c>
       <c r="H20">
-        <v>0.04116372663425305</v>
+        <v>-0.5099739529217828</v>
       </c>
       <c r="I20">
-        <v>0.1239417963794271</v>
+        <v>-0.09999999999999698</v>
       </c>
       <c r="J20">
-        <v>0.8999999999999599</v>
+        <v>0.4654042787202852</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1058,25 +1058,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>-0.7594837991400569</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.4399412104564964</v>
       </c>
       <c r="D21">
-        <v>-0.541165041129787</v>
+        <v>-0.734533228560807</v>
       </c>
       <c r="E21">
-        <v>-0.146653639168647</v>
+        <v>2.275556695716489</v>
       </c>
       <c r="F21">
-        <v>0.01913223201216896</v>
+        <v>-0.5320054475438669</v>
       </c>
       <c r="G21">
-        <v>0.1019272793931381</v>
+        <v>-0.1220145169862861</v>
       </c>
       <c r="H21">
-        <v>0.8780024512576969</v>
+        <v>0.4434067299780222</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1084,31 +1084,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.19336818743102</v>
       </c>
       <c r="C22">
-        <v>-0.0680786946464591</v>
+        <v>2.354131640238677</v>
       </c>
       <c r="D22">
-        <v>0.08938912146112488</v>
+        <v>-0.461748558094911</v>
       </c>
       <c r="E22">
-        <v>0.1566192376611042</v>
+        <v>-0.06732255871831994</v>
       </c>
       <c r="F22">
-        <v>0.9171114914048639</v>
+        <v>0.4825157701251892</v>
       </c>
       <c r="G22">
-        <v>-1.188232454659243</v>
+        <v>0.517677114878327</v>
       </c>
       <c r="H22">
-        <v>1.617388890890092</v>
+        <v>1.491403243014375</v>
       </c>
       <c r="I22">
-        <v>0.3211003458394968</v>
+        <v>1.148757636989984</v>
       </c>
       <c r="J22">
-        <v>0.162063795679757</v>
+        <v>-0.0544928672541829</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1116,28 +1116,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2.422210334885136</v>
       </c>
       <c r="C23">
-        <v>-0.02493924300509298</v>
+        <v>-0.5760769225611289</v>
       </c>
       <c r="D23">
-        <v>0.07997506954529898</v>
+        <v>-0.1439667268341251</v>
       </c>
       <c r="E23">
-        <v>0.8561010918819509</v>
+        <v>0.4215053706022762</v>
       </c>
       <c r="F23">
-        <v>-1.249661126881477</v>
+        <v>0.4562484426560931</v>
       </c>
       <c r="G23">
-        <v>1.556266946903713</v>
+        <v>1.430281299027996</v>
       </c>
       <c r="H23">
-        <v>0.2600081396099938</v>
+        <v>1.087665430760481</v>
       </c>
       <c r="I23">
-        <v>0.101001283665767</v>
+        <v>-0.1155553792681729</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1145,25 +1145,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>-0.5511376795560359</v>
       </c>
       <c r="C24">
-        <v>0.002098188342004148</v>
+        <v>-0.22184360803742</v>
       </c>
       <c r="D24">
-        <v>0.8563465640741978</v>
+        <v>0.4217508427945231</v>
       </c>
       <c r="E24">
-        <v>-1.210504948336151</v>
+        <v>0.4954046212014191</v>
       </c>
       <c r="F24">
-        <v>1.59556623049948</v>
+        <v>1.469580582623763</v>
       </c>
       <c r="G24">
-        <v>0.2993450604416947</v>
+        <v>1.127002351592182</v>
       </c>
       <c r="H24">
-        <v>0.1403757700507811</v>
+        <v>-0.07618089288315888</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1171,28 +1171,28 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>-0.2239417963794241</v>
       </c>
       <c r="C25">
-        <v>0.935627072435449</v>
+        <v>0.5010313511557742</v>
       </c>
       <c r="D25">
-        <v>-1.208901290907675</v>
+        <v>0.4970082786298951</v>
       </c>
       <c r="E25">
-        <v>1.59676805996977</v>
+        <v>1.470782412094053</v>
       </c>
       <c r="F25">
-        <v>0.2005451982772117</v>
+        <v>1.028202489427699</v>
       </c>
       <c r="G25">
-        <v>0.04157431839723813</v>
+        <v>-0.1749823445367018</v>
       </c>
       <c r="H25">
-        <v>1.326879919308141</v>
+        <v>2.496480684450609</v>
       </c>
       <c r="I25">
-        <v>15.39694167442111</v>
+        <v>16.92263857113068</v>
       </c>
       <c r="J25">
         <v>-7.072507277398856</v>
@@ -1206,25 +1206,25 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>-0.4345957212796748</v>
       </c>
       <c r="C26">
-        <v>-1.20590956953757</v>
+        <v>0.5</v>
       </c>
       <c r="D26">
-        <v>1.6</v>
+        <v>1.474014352124283</v>
       </c>
       <c r="E26">
-        <v>0.2036736335634459</v>
+        <v>1.031330924713933</v>
       </c>
       <c r="F26">
-        <v>0.04459929372449412</v>
+        <v>-0.1719573692094458</v>
       </c>
       <c r="G26">
-        <v>1.330399234857532</v>
+        <v>2.5</v>
       </c>
       <c r="H26">
-        <v>15.4</v>
+        <v>16.92569689670956</v>
       </c>
       <c r="I26">
         <v>-7.069552516856779</v>
@@ -1238,22 +1238,22 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1.70590956953757</v>
       </c>
       <c r="C27">
-        <v>1.556879353902923</v>
+        <v>1.430893706027206</v>
       </c>
       <c r="D27">
-        <v>0.1998564181201627</v>
+        <v>1.02751370927065</v>
       </c>
       <c r="E27">
-        <v>0.04088651359114692</v>
+        <v>-0.175670149342793</v>
       </c>
       <c r="F27">
-        <v>1.324482435007894</v>
+        <v>2.494083200150362</v>
       </c>
       <c r="G27">
-        <v>15.39555007966942</v>
+        <v>16.92124697637898</v>
       </c>
       <c r="H27">
         <v>-7.073896905414671</v>
@@ -1267,19 +1267,19 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-0.1259856478757172</v>
       </c>
       <c r="C28">
-        <v>0.2036736335634459</v>
+        <v>1.031330924713933</v>
       </c>
       <c r="D28">
-        <v>0.04459929372449412</v>
+        <v>-0.1719573692094458</v>
       </c>
       <c r="E28">
-        <v>1.330399234857532</v>
+        <v>2.5</v>
       </c>
       <c r="F28">
-        <v>15.4</v>
+        <v>16.92569689670956</v>
       </c>
       <c r="G28">
         <v>-7.069552516856779</v>
@@ -1293,16 +1293,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.8276572911504871</v>
       </c>
       <c r="C29">
-        <v>-0.0006614457146980612</v>
+        <v>-0.217218108648638</v>
       </c>
       <c r="D29">
-        <v>1.369031847600183</v>
+        <v>2.538632612742652</v>
       </c>
       <c r="E29">
-        <v>15.4384846269338</v>
+        <v>16.96418152364336</v>
       </c>
       <c r="F29">
         <v>-7.031063499478265</v>
@@ -1328,13 +1328,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>-0.2165566629339399</v>
       </c>
       <c r="C30">
-        <v>1.485337110477758</v>
+        <v>2.654937875620226</v>
       </c>
       <c r="D30">
-        <v>15.43846642686832</v>
+        <v>16.96416332357788</v>
       </c>
       <c r="E30">
         <v>-7.031081694683493</v>
@@ -1360,10 +1360,10 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1.169600765142468</v>
       </c>
       <c r="C31">
-        <v>13.22977187420075</v>
+        <v>14.75546877091031</v>
       </c>
       <c r="D31">
         <v>-4.492907411940308</v>
@@ -1389,7 +1389,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1.525696896709562</v>
       </c>
       <c r="C32">
         <v>-0.7695525168567796</v>

--- a/3_Component_Results/IMPORT/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1195,10 +1195,10 @@
         <v>16.92263857113068</v>
       </c>
       <c r="J25">
-        <v>-7.072507277398856</v>
+        <v>-8.161966548722575</v>
       </c>
       <c r="K25">
-        <v>-1.220639454404036</v>
+        <v>-2.809361661215774</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1227,10 +1227,10 @@
         <v>16.92569689670956</v>
       </c>
       <c r="I26">
-        <v>-7.069552516856779</v>
+        <v>-8.159011788180498</v>
       </c>
       <c r="J26">
-        <v>-1.217788110998191</v>
+        <v>-2.806510317809929</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1256,10 +1256,10 @@
         <v>16.92124697637898</v>
       </c>
       <c r="H27">
-        <v>-7.073896905414671</v>
+        <v>-8.16335617673839</v>
       </c>
       <c r="I27">
-        <v>-1.22202711558775</v>
+        <v>-2.810749322399487</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1282,10 +1282,10 @@
         <v>16.92569689670956</v>
       </c>
       <c r="G28">
-        <v>-7.069552516856779</v>
+        <v>-8.159011788180498</v>
       </c>
       <c r="H28">
-        <v>-1.217788110998191</v>
+        <v>-2.806510317809929</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1305,22 +1305,22 @@
         <v>16.96418152364336</v>
       </c>
       <c r="F29">
-        <v>-7.031063499478265</v>
+        <v>-8.120522770801983</v>
       </c>
       <c r="G29">
-        <v>-1.179294704348393</v>
+        <v>-2.768016911160131</v>
       </c>
       <c r="H29">
-        <v>1.885864881578541</v>
+        <v>-2.913197998145364</v>
       </c>
       <c r="I29">
-        <v>-1.976944405321418</v>
+        <v>-1.164222876508844</v>
       </c>
       <c r="J29">
-        <v>0.4635242331223424</v>
+        <v>1.461604321912361</v>
       </c>
       <c r="K29">
-        <v>0.24576459045484</v>
+        <v>-4.181974971976672</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1337,22 +1337,22 @@
         <v>16.96416332357788</v>
       </c>
       <c r="E30">
-        <v>-7.031081694683493</v>
+        <v>-8.120540966007212</v>
       </c>
       <c r="F30">
-        <v>-1.179312894692998</v>
+        <v>-2.768035101504736</v>
       </c>
       <c r="G30">
-        <v>2.000825089135105</v>
+        <v>-2.7982377905888</v>
       </c>
       <c r="H30">
-        <v>-1.976944405321432</v>
+        <v>-1.164222876508858</v>
       </c>
       <c r="I30">
-        <v>0.4635242331223708</v>
+        <v>1.46160432191239</v>
       </c>
       <c r="J30">
-        <v>0.24576459045484</v>
+        <v>-4.181974971976672</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1366,22 +1366,22 @@
         <v>14.75546877091031</v>
       </c>
       <c r="D31">
-        <v>-4.492907411940308</v>
+        <v>-5.582366683264027</v>
       </c>
       <c r="E31">
-        <v>-1.017788110998197</v>
+        <v>-2.606510317809935</v>
       </c>
       <c r="F31">
-        <v>2.114336154906184</v>
+        <v>-2.684726724817722</v>
       </c>
       <c r="G31">
-        <v>-1.976944405321418</v>
+        <v>-1.164222876508844</v>
       </c>
       <c r="H31">
-        <v>0.4635242331223282</v>
+        <v>1.461604321912347</v>
       </c>
       <c r="I31">
-        <v>0.2457645904548542</v>
+        <v>-4.181974971976658</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1392,22 +1392,22 @@
         <v>1.525696896709562</v>
       </c>
       <c r="C32">
-        <v>-0.7695525168567796</v>
+        <v>-1.859011788180498</v>
       </c>
       <c r="D32">
-        <v>2.682211889001809</v>
+        <v>1.093489682190071</v>
       </c>
       <c r="E32">
-        <v>3.486124005600971</v>
+        <v>-1.312938874122935</v>
       </c>
       <c r="F32">
-        <v>-0.976944405321424</v>
+        <v>-0.16422287650885</v>
       </c>
       <c r="G32">
-        <v>0.4635242331223793</v>
+        <v>1.461604321912398</v>
       </c>
       <c r="H32">
-        <v>0.2457645904548486</v>
+        <v>-4.181974971976663</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-1.089459271323719</v>
       </c>
       <c r="C33">
-        <v>1.709888577285995</v>
+        <v>0.1211663704742572</v>
       </c>
       <c r="D33">
-        <v>3.320095763701858</v>
+        <v>-1.478967116022048</v>
       </c>
       <c r="E33">
-        <v>-0.6969532218503498</v>
+        <v>0.1157683069622242</v>
       </c>
       <c r="F33">
-        <v>1.258249002406813</v>
+        <v>2.256329091196832</v>
       </c>
       <c r="G33">
-        <v>0.8514872366167194</v>
+        <v>-3.576252325814792</v>
       </c>
       <c r="H33">
-        <v>2.461129800035692</v>
+        <v>0.1742581798826135</v>
       </c>
       <c r="I33">
-        <v>-0.7215436416437491</v>
+        <v>-0.5482747430672961</v>
       </c>
       <c r="J33">
-        <v>0.7026180459345426</v>
+        <v>-1.451141586996598</v>
       </c>
       <c r="K33">
-        <v>2.916521230865712</v>
+        <v>2.23808601891443</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-1.588722206811738</v>
       </c>
       <c r="C34">
-        <v>1.647130576698942</v>
+        <v>-3.151932303024964</v>
       </c>
       <c r="D34">
-        <v>-0.4452972243515201</v>
+        <v>0.3674243044610539</v>
       </c>
       <c r="E34">
-        <v>3.338842911190781</v>
+        <v>4.3369229999808</v>
       </c>
       <c r="F34">
-        <v>1.712699507717105</v>
+        <v>-2.715040054714407</v>
       </c>
       <c r="G34">
-        <v>2.765791435551989</v>
+        <v>0.4789198153989105</v>
       </c>
       <c r="H34">
-        <v>-0.60066600754314</v>
+        <v>-0.427397108966687</v>
       </c>
       <c r="I34">
-        <v>0.7026180459345284</v>
+        <v>-1.451141586996612</v>
       </c>
       <c r="J34">
-        <v>2.916521230865712</v>
+        <v>2.23808601891443</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-4.799062879723905</v>
       </c>
       <c r="C35">
-        <v>-0.717322708790789</v>
+        <v>0.09539882002178501</v>
       </c>
       <c r="D35">
-        <v>4.296430991061045</v>
+        <v>5.294511079851064</v>
       </c>
       <c r="E35">
-        <v>2.168429207868784</v>
+        <v>-2.259310354562728</v>
       </c>
       <c r="F35">
-        <v>2.709658347828977</v>
+        <v>0.4227867276758985</v>
       </c>
       <c r="G35">
-        <v>-0.6047108578675171</v>
+        <v>-0.4314419592910641</v>
       </c>
       <c r="H35">
-        <v>0.8470598509672269</v>
+        <v>-1.306699781963914</v>
       </c>
       <c r="I35">
-        <v>2.916521230865741</v>
+        <v>2.238086018914458</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.812721528812574</v>
       </c>
       <c r="C36">
-        <v>3.955862076997633</v>
+        <v>4.953942165787652</v>
       </c>
       <c r="D36">
-        <v>1.470868900228468</v>
+        <v>-2.956870662203044</v>
       </c>
       <c r="E36">
-        <v>2.645186525700154</v>
+        <v>0.3583149055470753</v>
       </c>
       <c r="F36">
-        <v>-0.6210197792695451</v>
+        <v>-0.4477508806930921</v>
       </c>
       <c r="G36">
-        <v>0.8381122854208198</v>
+        <v>-1.315647347510321</v>
       </c>
       <c r="H36">
-        <v>2.916521230865741</v>
+        <v>2.238086018914458</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.9980800887900187</v>
       </c>
       <c r="C37">
-        <v>2.283236258977653</v>
+        <v>-2.144503303453859</v>
       </c>
       <c r="D37">
-        <v>3.065459213709658</v>
+        <v>0.7785875935565794</v>
       </c>
       <c r="E37">
-        <v>-0.3942037516879111</v>
+        <v>-0.2209348531114581</v>
       </c>
       <c r="F37">
-        <v>0.8399712559757968</v>
+        <v>-1.313788376955344</v>
       </c>
       <c r="G37">
-        <v>2.916521230865755</v>
+        <v>2.238086018914473</v>
       </c>
       <c r="H37">
-        <v>2.323493124054721</v>
+        <v>1.798459270573645</v>
       </c>
       <c r="I37">
-        <v>0.7198172561479623</v>
+        <v>0.9080743123241604</v>
       </c>
       <c r="J37">
-        <v>0.2307546029127394</v>
+        <v>2.174764871858827</v>
       </c>
       <c r="K37">
-        <v>2.232431520850952</v>
+        <v>2.581785915908512</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-4.427739562431512</v>
       </c>
       <c r="C38">
-        <v>1.778335989506686</v>
+        <v>-0.5085356306463922</v>
       </c>
       <c r="D38">
-        <v>1.705280145193541</v>
+        <v>1.878549043769994</v>
       </c>
       <c r="E38">
-        <v>2.317842086155494</v>
+        <v>0.1640824532243532</v>
       </c>
       <c r="F38">
-        <v>3.730983687732348</v>
+        <v>3.052548475781066</v>
       </c>
       <c r="G38">
-        <v>2.518516409038483</v>
+        <v>1.993482555557406</v>
       </c>
       <c r="H38">
-        <v>0.7198172561479339</v>
+        <v>0.9080743123241319</v>
       </c>
       <c r="I38">
-        <v>0.2307546029127536</v>
+        <v>2.174764871858841</v>
       </c>
       <c r="J38">
-        <v>2.232431520850952</v>
+        <v>2.581785915908512</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-2.286871620153079</v>
       </c>
       <c r="C39">
-        <v>-0.464039576866341</v>
+        <v>-0.290770678289888</v>
       </c>
       <c r="D39">
-        <v>1.596537928681983</v>
+        <v>-0.5572217042491578</v>
       </c>
       <c r="E39">
-        <v>2.927674109962084</v>
+        <v>2.249238898010802</v>
       </c>
       <c r="F39">
-        <v>2.307219419355519</v>
+        <v>1.782185565874443</v>
       </c>
       <c r="G39">
-        <v>0.7198172561479623</v>
+        <v>0.9080743123241604</v>
       </c>
       <c r="H39">
-        <v>0.230754602912711</v>
+        <v>2.174764871858798</v>
       </c>
       <c r="I39">
-        <v>2.232431520850952</v>
+        <v>2.581785915908512</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.173268898576453</v>
       </c>
       <c r="C40">
-        <v>1.295510551146592</v>
+        <v>-0.858249081784549</v>
       </c>
       <c r="D40">
-        <v>2.98886521253904</v>
+        <v>2.310430000587758</v>
       </c>
       <c r="E40">
-        <v>2.279554926438777</v>
+        <v>1.754521072957701</v>
       </c>
       <c r="F40">
-        <v>0.7198172561479339</v>
+        <v>0.9080743123241319</v>
       </c>
       <c r="G40">
-        <v>0.2307546029127394</v>
+        <v>2.174764871858827</v>
       </c>
       <c r="H40">
-        <v>2.232431520850952</v>
+        <v>2.581785915908512</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-2.153759632931141</v>
       </c>
       <c r="C41">
-        <v>2.640966207563352</v>
+        <v>1.96253099561207</v>
       </c>
       <c r="D41">
-        <v>1.393258434495081</v>
+        <v>0.8682245810140046</v>
       </c>
       <c r="E41">
-        <v>0.3427820420677251</v>
+        <v>0.531039098243923</v>
       </c>
       <c r="F41">
-        <v>0.96864891204568</v>
+        <v>2.912659180991767</v>
       </c>
       <c r="G41">
-        <v>2.855518397155279</v>
+        <v>3.204872792212839</v>
       </c>
       <c r="H41">
-        <v>1.532812655447316</v>
+        <v>0.8261041740273922</v>
       </c>
       <c r="I41">
-        <v>0.1741078792912136</v>
+        <v>0.9960589915708058</v>
       </c>
       <c r="J41">
-        <v>1.282717341231148</v>
+        <v>0.8671966487193004</v>
       </c>
       <c r="K41">
-        <v>0.7129791042785882</v>
+        <v>0.474465624449067</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-0.6784352119512822</v>
       </c>
       <c r="C42">
-        <v>1.865774547506959</v>
+        <v>1.340740694025882</v>
       </c>
       <c r="D42">
-        <v>0.8430313798218949</v>
+        <v>1.031288435998093</v>
       </c>
       <c r="E42">
-        <v>0.507522834612828</v>
+        <v>2.451533103558915</v>
       </c>
       <c r="F42">
-        <v>2.432431520850954</v>
+        <v>2.781785915908514</v>
       </c>
       <c r="G42">
-        <v>1.114913218747461</v>
+        <v>0.4082047373275373</v>
       </c>
       <c r="H42">
-        <v>-0.01681006807272922</v>
+        <v>0.8051410442068629</v>
       </c>
       <c r="I42">
-        <v>1.091999022710482</v>
+        <v>0.6764783301986341</v>
       </c>
       <c r="J42">
-        <v>0.5224608068715213</v>
+        <v>0.2839473270420001</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-0.5250338534810766</v>
       </c>
       <c r="C43">
-        <v>0.9351351626564228</v>
+        <v>1.123392218832621</v>
       </c>
       <c r="D43">
-        <v>0.8160306991797479</v>
+        <v>2.760040968125835</v>
       </c>
       <c r="E43">
-        <v>2.663858499540538</v>
+        <v>3.013212894598098</v>
       </c>
       <c r="F43">
-        <v>1.341878233890426</v>
+        <v>0.6351697524705031</v>
       </c>
       <c r="G43">
-        <v>0.2518260388021076</v>
+        <v>1.0737771510817</v>
       </c>
       <c r="H43">
-        <v>1.206925077072825</v>
+        <v>0.7914043845609768</v>
       </c>
       <c r="I43">
-        <v>0.5221734794018573</v>
+        <v>0.2836599995723361</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.188257056176198</v>
       </c>
       <c r="C44">
-        <v>-0.009110941267053363</v>
+        <v>1.934899327679034</v>
       </c>
       <c r="D44">
-        <v>2.608760647418123</v>
+        <v>2.958115042475683</v>
       </c>
       <c r="E44">
-        <v>1.718393648890967</v>
+        <v>1.011685167471043</v>
       </c>
       <c r="F44">
-        <v>0.5028874289212268</v>
+        <v>1.324838541200819</v>
       </c>
       <c r="G44">
-        <v>1.461096001627283</v>
+        <v>1.045575309115435</v>
       </c>
       <c r="H44">
-        <v>0.5899118920717825</v>
+        <v>0.3513984122422613</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1781,28 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1.944010268946087</v>
       </c>
       <c r="C45">
-        <v>1.982029966443846</v>
+        <v>2.331384361501406</v>
       </c>
       <c r="D45">
-        <v>0.7952068158497951</v>
+        <v>0.08849833442987176</v>
       </c>
       <c r="E45">
-        <v>0.0153188205345316</v>
+        <v>0.8372699328141238</v>
       </c>
       <c r="F45">
-        <v>1.198584470885919</v>
+        <v>0.7830637783740713</v>
       </c>
       <c r="G45">
-        <v>0.5916075012941207</v>
+        <v>0.3530940214645995</v>
       </c>
       <c r="H45">
-        <v>0.9860559241421356</v>
+        <v>-0.1205515391266945</v>
       </c>
       <c r="I45">
-        <v>0.9050742273248034</v>
-      </c>
-      <c r="J45">
-        <v>0.7063215353172865</v>
+        <v>-0.689832312574836</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1810,25 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.3493543950575599</v>
       </c>
       <c r="C46">
-        <v>1.019202675916873</v>
+        <v>0.3124941944969493</v>
       </c>
       <c r="D46">
-        <v>0.3127160697003577</v>
+        <v>1.13466718197995</v>
       </c>
       <c r="E46">
-        <v>1.428746788026601</v>
+        <v>1.013226095514753</v>
       </c>
       <c r="F46">
-        <v>0.8220472744488911</v>
+        <v>0.5835337946193699</v>
       </c>
       <c r="G46">
-        <v>1.086691367719169</v>
+        <v>-0.01991609554966089</v>
       </c>
       <c r="H46">
-        <v>1.001204731216006</v>
-      </c>
-      <c r="I46">
-        <v>0.802384846178867</v>
+        <v>-0.593701808683633</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1836,22 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-0.7067084814199234</v>
       </c>
       <c r="C47">
-        <v>-0.3461280244975171</v>
+        <v>0.475823087782075</v>
       </c>
       <c r="D47">
-        <v>1.346875190600585</v>
+        <v>0.9313544980887374</v>
       </c>
       <c r="E47">
-        <v>0.8208787459935682</v>
+        <v>0.582365266164047</v>
       </c>
       <c r="F47">
-        <v>1.088925433840671</v>
+        <v>-0.017682029428159</v>
       </c>
       <c r="G47">
-        <v>1.002039821900894</v>
-      </c>
-      <c r="H47">
-        <v>0.8032202015918981</v>
+        <v>-0.592866717998745</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,92 +1859,74 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.8219511122795922</v>
       </c>
       <c r="C48">
-        <v>1.484266030500578</v>
+        <v>1.06874533798873</v>
       </c>
       <c r="D48">
-        <v>0.9893510718050462</v>
+        <v>0.750837591975525</v>
       </c>
       <c r="E48">
-        <v>0.8811500997295525</v>
+        <v>-0.2254573635392776</v>
       </c>
       <c r="F48">
-        <v>0.5557041357478738</v>
-      </c>
-      <c r="G48">
-        <v>0.1830201779573742</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-1.039202404151766</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.4155206925118478</v>
       </c>
       <c r="C49">
-        <v>0.281047117434241</v>
+        <v>0.04253363760471984</v>
       </c>
       <c r="D49">
-        <v>0.6591194861626377</v>
+        <v>-0.4474879771061924</v>
       </c>
       <c r="E49">
-        <v>0.6070927115958966</v>
-      </c>
-      <c r="F49">
-        <v>0.4087936081916013</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.9878138283037428</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>-0.2385134798295212</v>
       </c>
       <c r="C50">
-        <v>0.4866168689482606</v>
+        <v>-0.6199905943205695</v>
       </c>
       <c r="D50">
-        <v>0.4563187007040312</v>
-      </c>
-      <c r="E50">
-        <v>0.3766104896885594</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-1.138587839195608</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-1.10660746326883</v>
       </c>
       <c r="C51">
-        <v>-0.1031186876244448</v>
-      </c>
-      <c r="D51">
-        <v>-0.2174926288663243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-1.698025227524084</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0.002314122874594315</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>-1.594906539899639</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
